--- a/src/test/resources/TestData/AutomationTestData.xlsx
+++ b/src/test/resources/TestData/AutomationTestData.xlsx
@@ -147,20 +147,24 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -373,12 +377,12 @@
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -406,12 +410,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4921875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="20.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="3" width="10.79"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -422,7 +426,7 @@
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -450,9 +454,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4921875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="9.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="3" width="8.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="15.8"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -467,13 +471,13 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="3" t="s">
         <v>11</v>
       </c>
     </row>
@@ -514,10 +518,10 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="3" t="s">
         <v>13</v>
       </c>
     </row>
